--- a/Presentation/Casa.API/FormatFiles/Template_QCBom.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCBom.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sujay-Git\CLN_API\Presentation\Casa.API\FormatFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CB22E-29F0-459E-AFD5-7DFDD623E7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>PartCode</t>
   </si>
@@ -86,14 +80,17 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>IsActive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -155,7 +152,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,27 +435,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -486,8 +483,11 @@
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -515,8 +515,11 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -544,8 +547,11 @@
       <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -554,7 +560,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -563,7 +569,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -572,7 +578,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -581,7 +587,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -590,7 +596,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -599,7 +605,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -608,7 +614,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -617,7 +623,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -626,7 +632,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -635,7 +641,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -644,7 +650,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -653,7 +659,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -711,6 +717,11 @@
       <c r="E24" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/Presentation/Casa.API/FormatFiles/Template_QCBom.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCBom.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
-    <t>PartCode</t>
-  </si>
-  <si>
     <t>ProductCategory</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>IsActive</t>
+  </si>
+  <si>
+    <t>BOM#</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -457,63 +457,63 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -521,31 +521,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
